--- a/Prueba_1/DatosPracticaSQL.xlsx
+++ b/Prueba_1/DatosPracticaSQL.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mexic\OneDrive\Documentos\Nuxiba\SourceTree\testdevbackjr\Prueba_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramo\Documents\Nuxiba Test\testdevbackjr\Prueba_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D23440-1751-4627-914B-97537F8D5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="22500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info usuarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Info Empleados" sheetId="3" r:id="rId2"/>
+    <sheet name="DatosPracticaSQL-usuarios" sheetId="2" r:id="rId1"/>
+    <sheet name="DatosPracticaSQL-empleados" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Info Empleados'!$A$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DatosPracticaSQL-empleados'!$A$1:$C$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -546,10 +547,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0_-;\-[$$-80A]* #,##0_-;_-[$$-80A]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -668,9 +669,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -678,13 +679,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Encabezado 1 2" xfId="5"/>
-    <cellStyle name="Encabezado 1 3" xfId="2"/>
-    <cellStyle name="Hipervínculo 2" xfId="4"/>
-    <cellStyle name="Hipervínculo 3" xfId="6"/>
+    <cellStyle name="Encabezado 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Encabezado 1 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -995,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2243,8 +2244,8 @@
       <c r="B51" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C51">
-    <sortState ref="A2:C51">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
       <sortCondition ref="C1:C51"/>
     </sortState>
   </autoFilter>
